--- a/data/trans_dic/P20D1_R_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20D1_R_2023-Edad-trans_dic.xlsx
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3658271524477392</v>
+        <v>0.3658271524477391</v>
       </c>
     </row>
     <row r="8">
@@ -655,7 +655,7 @@
         <v>0.2283333847726798</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.5879768643981212</v>
+        <v>0.5879768643981211</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.4430435329582658</v>
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2945320695179744</v>
+        <v>0.3044372664012726</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2051052605336018</v>
+        <v>0.2140279225339182</v>
       </c>
     </row>
     <row r="12">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.826361824807903</v>
+        <v>0.8269625535998864</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8339679975003619</v>
+        <v>0.8429833525228911</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6898900015110463</v>
+        <v>0.7046100808621908</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +710,10 @@
         <v>0.1264017345505347</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3620274187690424</v>
+        <v>0.3620274187690423</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2323576087334517</v>
+        <v>0.2323576087334516</v>
       </c>
     </row>
     <row r="14">
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1817766668044647</v>
+        <v>0.1845218806826648</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1079807047156133</v>
+        <v>0.1245760067130124</v>
       </c>
     </row>
     <row r="15">
@@ -741,13 +741,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.39221038043292</v>
+        <v>0.3665781345451898</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.58935547975066</v>
+        <v>0.6016857239351492</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3716922710920447</v>
+        <v>0.4032419379350562</v>
       </c>
     </row>
     <row r="16">
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03400769909638229</v>
+        <v>0.0354997976520624</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3331214579435531</v>
+        <v>0.3350405589987706</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1811715602725554</v>
+        <v>0.1900550876197832</v>
       </c>
     </row>
     <row r="18">
@@ -796,13 +796,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3716732360925574</v>
+        <v>0.4224053416316888</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.815850060106793</v>
+        <v>0.8117187292717349</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4711386076704196</v>
+        <v>0.4772969481871309</v>
       </c>
     </row>
     <row r="19">
@@ -823,7 +823,7 @@
         <v>0.1843716150904998</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.09512059652448336</v>
+        <v>0.09512059652448338</v>
       </c>
     </row>
     <row r="20">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02486439252861364</v>
+        <v>0.02251206391812998</v>
       </c>
     </row>
     <row r="21">
@@ -851,13 +851,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2236606753610564</v>
+        <v>0.209993294373951</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5105256380772332</v>
+        <v>0.5274554850617656</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2265872625004962</v>
+        <v>0.2112630356758019</v>
       </c>
     </row>
     <row r="22">
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05583870189110739</v>
+        <v>0.05270970562901666</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2655722285995014</v>
+        <v>0.25126024685633</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2384258554762879</v>
+        <v>0.22009924984559</v>
       </c>
     </row>
     <row r="24">
@@ -906,13 +906,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5718574208380387</v>
+        <v>0.5690114309336055</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7306234212867219</v>
+        <v>0.6817423742485716</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.585276583805184</v>
+        <v>0.5828181527681695</v>
       </c>
     </row>
     <row r="25">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.5148654427542919</v>
+        <v>0.514865442754292</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.3046049829183108</v>
+        <v>0.3046049829183109</v>
       </c>
     </row>
     <row r="26">
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4111081371078712</v>
+        <v>0.3962269262512342</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2310568457617186</v>
+        <v>0.2293884464550214</v>
       </c>
     </row>
     <row r="27">
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6466812733474495</v>
+        <v>0.6389752093070827</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4047251083641883</v>
+        <v>0.3878086550424156</v>
       </c>
     </row>
     <row r="28">
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2593</v>
+        <v>2680</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3024</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="15">
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4910</v>
+        <v>4914</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7341</v>
+        <v>7421</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10172</v>
+        <v>10389</v>
       </c>
     </row>
     <row r="16">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2626</v>
+        <v>2666</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3469</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="19">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6935</v>
+        <v>6481</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8514</v>
+        <v>8693</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11942</v>
+        <v>12955</v>
       </c>
     </row>
     <row r="20">
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3597</v>
+        <v>3617</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5188</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="23">
@@ -1395,13 +1395,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6630</v>
+        <v>7535</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8809</v>
+        <v>8764</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13492</v>
+        <v>13668</v>
       </c>
     </row>
     <row r="24">
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>515</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3403</v>
+        <v>3195</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2805</v>
+        <v>2898</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4692</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="28">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2999</v>
+        <v>2837</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4268</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="31">
@@ -1539,13 +1539,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3778</v>
+        <v>3759</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>8251</v>
+        <v>7699</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10476</v>
+        <v>10432</v>
       </c>
     </row>
     <row r="32">
@@ -1594,13 +1594,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>23550</v>
+        <v>22698</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>28995</v>
+        <v>28785</v>
       </c>
     </row>
     <row r="35">
@@ -1611,13 +1611,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>37045</v>
+        <v>36604</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>50788</v>
+        <v>48665</v>
       </c>
     </row>
     <row r="36">
